--- a/biology/Médecine/2C-T-7/2C-T-7.xlsx
+++ b/biology/Médecine/2C-T-7/2C-T-7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 2C-T-7 est un psychotrope aux propriétés stimulantes et hallucinogènes de la famille des phényléthylamines[2].
+Le 2C-T-7 est un psychotrope aux propriétés stimulantes et hallucinogènes de la famille des phényléthylamines.
 Il est inventé par Alexander Shulgin au début des années 1980.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2C-T-7 n'étant pas un produit très répandu, peu de recherches ont été effectuées. On ne connaît que peu sa toxicité et sa pharmacologie.
-Ses effets sont relativement semblables à ceux du 2C-B mais d'une durée beaucoup plus longue (8 à 15 heures) et présentent des particularités[3].
+Ses effets sont relativement semblables à ceux du 2C-B mais d'une durée beaucoup plus longue (8 à 15 heures) et présentent des particularités.
 </t>
         </is>
       </c>
@@ -545,51 +559,56 @@
           <t>Effets et conséquences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il induit un état hallucinogène puissant proche de ceux de la mescaline[3].
-Les effets physiques peuvent comporter des nausées et des vomissements[3].
-Effets recherchés
-illusions sensorielles ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il induit un état hallucinogène puissant proche de ceux de la mescaline.
+Les effets physiques peuvent comporter des nausées et des vomissements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2C-T-7</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2C-T-7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">illusions sensorielles ;
 visions colorées ;
 sensations d'énergie, de bien-être ;
 sensation d'empathie ;
 exacerbation des sens (notamment tactile et sensibilité à la musique) ;
 synesthésie.
 Comme tout produit psychédélique, son usage peut générer des bad trips. 
-Plusieurs morts sont vraisemblablement liées à la prise de fortes quantités de 2C-T-7 par voie intranasale[4],[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2C-T-7</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/2C-T-7</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles[3].
-À l'instar du 2C-T-2, cette molécule a été disponible en vente libre dans les smartshops suédois et hollandais au début des années 2000 sous le nom de Blue Mystic.
+Plusieurs morts sont vraisemblablement liées à la prise de fortes quantités de 2C-T-7 par voie intranasale,.
 </t>
         </is>
       </c>
@@ -615,12 +634,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles.
+À l'instar du 2C-T-2, cette molécule a été disponible en vente libre dans les smartshops suédois et hollandais au début des années 2000 sous le nom de Blue Mystic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2C-T-7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/2C-T-7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 2C-T-7 a été en France classé comme stupéfiant en 2003[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2C-T-7 a été en France classé comme stupéfiant en 2003.
 </t>
         </is>
       </c>
